--- a/Mifos Automation Excels/Client/2674-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LATE-MORE-REPAY-AccCL1stFEB-REPAY-ON-15FEB-MORO-INT-1-PERIODIC-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2674-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LATE-MORE-REPAY-AccCL1stFEB-REPAY-ON-15FEB-MORO-INT-1-PERIODIC-Newcreateloan1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Head Office</t>
   </si>
@@ -167,12 +167,6 @@
   </si>
   <si>
     <t>EnterAccrualDate</t>
-  </si>
-  <si>
-    <t>accrualverify</t>
-  </si>
-  <si>
-    <t>validation.msg.periodicaccrual.execution.failed</t>
   </si>
 </sst>
 </file>
@@ -1051,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,14 +1069,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
